--- a/opcodesordenados.xlsx
+++ b/opcodesordenados.xlsx
@@ -1,18 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Documents/ArquiProyectos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="21000" windowHeight="14600"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja 1" sheetId="1" r:id="rId3"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t>Instrucción</t>
   </si>
@@ -581,18 +593,12 @@
     <t>1100011</t>
   </si>
   <si>
-    <t>INC A</t>
-  </si>
-  <si>
     <t>1100100</t>
   </si>
   <si>
     <t>1100101</t>
   </si>
   <si>
-    <t>DEC A</t>
-  </si>
-  <si>
     <t>1100110</t>
   </si>
   <si>
@@ -690,16 +696,16 @@
   </si>
   <si>
     <t>1111111</t>
+  </si>
+  <si>
+    <t>0100000</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -707,11 +713,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
     </font>
@@ -759,87 +760,399 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00DD0806"/>
+      <rgbColor rgb="001FB714"/>
+      <rgbColor rgb="000000D4"/>
+      <rgbColor rgb="00FCF305"/>
+      <rgbColor rgb="00F20884"/>
+      <rgbColor rgb="0000ABEA"/>
+      <rgbColor rgb="00900000"/>
+      <rgbColor rgb="00006411"/>
+      <rgbColor rgb="00000090"/>
+      <rgbColor rgb="0090713A"/>
+      <rgbColor rgb="004600A5"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0063AAFE"/>
+      <rgbColor rgb="00DD2D32"/>
+      <rgbColor rgb="00FFF58C"/>
+      <rgbColor rgb="004EE257"/>
+      <rgbColor rgb="006711FF"/>
+      <rgbColor rgb="00FEA746"/>
+      <rgbColor rgb="00865357"/>
+      <rgbColor rgb="00A2BD90"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="DengXian"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:IV129"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D104" sqref="D104"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.03" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.05469" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.05469" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.05469" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.05469" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.05469" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.05469" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.05469" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.05469" style="1" customWidth="1"/>
-    <col min="9" max="256" width="9.05469" style="1" customWidth="1"/>
+    <col min="1" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
@@ -849,11 +1162,11 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="20" customHeight="1">
-      <c r="A2" t="s" s="4">
+    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3"/>
@@ -863,11 +1176,11 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="20" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="3"/>
@@ -877,11 +1190,11 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" ht="20" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s" s="2">
+      <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="3"/>
@@ -891,11 +1204,11 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" ht="20" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s" s="2">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="3"/>
@@ -905,11 +1218,11 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="20" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="2">
+      <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="3"/>
@@ -919,11 +1232,11 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="20" customHeight="1">
-      <c r="A7" t="s" s="2">
+    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s" s="2">
+      <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="3"/>
@@ -933,11 +1246,11 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" ht="20" customHeight="1">
-      <c r="A8" t="s" s="2">
+    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s" s="2">
+      <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="3"/>
@@ -947,11 +1260,11 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" ht="20" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="3"/>
@@ -961,11 +1274,11 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" ht="21" customHeight="1">
-      <c r="A10" t="s" s="5">
+    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s" s="2">
+      <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C10" s="3"/>
@@ -975,11 +1288,11 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" ht="21" customHeight="1">
-      <c r="A11" t="s" s="5">
+    <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C11" s="3"/>
@@ -989,11 +1302,11 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" ht="21" customHeight="1">
-      <c r="A12" t="s" s="5">
+    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="3"/>
@@ -1003,11 +1316,11 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" ht="20" customHeight="1">
-      <c r="A13" t="s" s="2">
+    <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s" s="2">
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="3"/>
@@ -1017,11 +1330,11 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" ht="20" customHeight="1">
-      <c r="A14" t="s" s="2">
+    <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s" s="2">
+      <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="3"/>
@@ -1031,11 +1344,11 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" ht="20" customHeight="1">
-      <c r="A15" t="s" s="2">
+    <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s" s="2">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="3"/>
@@ -1045,11 +1358,11 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" ht="20" customHeight="1">
-      <c r="A16" t="s" s="2">
+    <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="3"/>
@@ -1059,11 +1372,11 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" ht="21" customHeight="1">
-      <c r="A17" t="s" s="5">
+    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="3"/>
@@ -1073,11 +1386,11 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" ht="20" customHeight="1">
-      <c r="A18" t="s" s="2">
+    <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s" s="2">
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C18" s="3"/>
@@ -1087,11 +1400,11 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" ht="20" customHeight="1">
-      <c r="A19" t="s" s="2">
+    <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s" s="2">
+      <c r="B19" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="3"/>
@@ -1101,11 +1414,11 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" ht="20" customHeight="1">
-      <c r="A20" t="s" s="2">
+    <row r="20" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s" s="2">
+      <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="3"/>
@@ -1115,11 +1428,11 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" ht="20" customHeight="1">
-      <c r="A21" t="s" s="2">
+    <row r="21" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s" s="2">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C21" s="3"/>
@@ -1129,11 +1442,11 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" ht="21" customHeight="1">
-      <c r="A22" t="s" s="6">
+    <row r="22" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s" s="2">
+      <c r="B22" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="7"/>
@@ -1143,11 +1456,11 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" ht="20" customHeight="1">
-      <c r="A23" t="s" s="2">
+    <row r="23" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C23" s="7"/>
@@ -1157,11 +1470,11 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" ht="20" customHeight="1">
-      <c r="A24" t="s" s="2">
+    <row r="24" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s" s="2">
+      <c r="B24" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C24" s="7"/>
@@ -1171,11 +1484,11 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" ht="20" customHeight="1">
-      <c r="A25" t="s" s="2">
+    <row r="25" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s" s="2">
+      <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C25" s="7"/>
@@ -1185,11 +1498,11 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" ht="20" customHeight="1">
-      <c r="A26" t="s" s="2">
+    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s" s="2">
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="7"/>
@@ -1199,11 +1512,11 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" ht="20" customHeight="1">
-      <c r="A27" t="s" s="2">
+    <row r="27" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s" s="2">
+      <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="7"/>
@@ -1213,11 +1526,11 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" ht="21" customHeight="1">
-      <c r="A28" t="s" s="5">
+    <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C28" s="7"/>
@@ -1227,11 +1540,11 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" ht="20" customHeight="1">
-      <c r="A29" t="s" s="2">
+    <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C29" s="7"/>
@@ -1241,11 +1554,11 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" ht="20" customHeight="1">
-      <c r="A30" t="s" s="2">
+    <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s" s="2">
+      <c r="B30" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C30" s="7"/>
@@ -1255,11 +1568,11 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" ht="20" customHeight="1">
-      <c r="A31" t="s" s="2">
+    <row r="31" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="B31" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C31" s="7"/>
@@ -1269,11 +1582,11 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" ht="20" customHeight="1">
-      <c r="A32" t="s" s="2">
+    <row r="32" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="B32" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="7"/>
@@ -1283,11 +1596,11 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" ht="20" customHeight="1">
-      <c r="A33" t="s" s="2">
+    <row r="33" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="B33" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="7"/>
@@ -1297,12 +1610,12 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" ht="21" customHeight="1">
-      <c r="A34" t="s" s="5">
+    <row r="34" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B34" t="s" s="2">
-        <v>35</v>
+      <c r="B34" s="9" t="s">
+        <v>224</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1311,11 +1624,11 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" ht="20" customHeight="1">
-      <c r="A35" t="s" s="2">
+    <row r="35" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C35" s="7"/>
@@ -1325,11 +1638,11 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" ht="20" customHeight="1">
-      <c r="A36" t="s" s="2">
+    <row r="36" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C36" s="7"/>
@@ -1339,11 +1652,11 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" ht="20" customHeight="1">
-      <c r="A37" t="s" s="2">
+    <row r="37" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B37" t="s" s="2">
+      <c r="B37" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C37" s="7"/>
@@ -1353,9 +1666,9 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" ht="22" customHeight="1">
+    <row r="38" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
-      <c r="B38" t="s" s="2">
+      <c r="B38" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C38" s="7"/>
@@ -1365,9 +1678,9 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" ht="22" customHeight="1">
+    <row r="39" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
-      <c r="B39" t="s" s="2">
+      <c r="B39" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C39" s="7"/>
@@ -1377,9 +1690,9 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" ht="22" customHeight="1">
+    <row r="40" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
-      <c r="B40" t="s" s="2">
+      <c r="B40" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C40" s="7"/>
@@ -1389,9 +1702,9 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" ht="22" customHeight="1">
+    <row r="41" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
-      <c r="B41" t="s" s="2">
+      <c r="B41" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C41" s="7"/>
@@ -1401,11 +1714,11 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" ht="20" customHeight="1">
-      <c r="A42" t="s" s="2">
+    <row r="42" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C42" s="7"/>
@@ -1415,11 +1728,11 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" ht="20" customHeight="1">
-      <c r="A43" t="s" s="2">
+    <row r="43" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B43" t="s" s="2">
+      <c r="B43" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C43" s="7"/>
@@ -1429,11 +1742,11 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" ht="20" customHeight="1">
-      <c r="A44" t="s" s="2">
+    <row r="44" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B44" t="s" s="2">
+      <c r="B44" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C44" s="7"/>
@@ -1443,11 +1756,11 @@
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" ht="20" customHeight="1">
-      <c r="A45" t="s" s="2">
+    <row r="45" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C45" s="7"/>
@@ -1457,11 +1770,11 @@
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" ht="21" customHeight="1">
-      <c r="A46" t="s" s="5">
+    <row r="46" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B46" t="s" s="2">
+      <c r="B46" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C46" s="7"/>
@@ -1471,11 +1784,11 @@
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" ht="20" customHeight="1">
-      <c r="A47" t="s" s="2">
+    <row r="47" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B47" t="s" s="2">
+      <c r="B47" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C47" s="7"/>
@@ -1485,11 +1798,11 @@
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" ht="20" customHeight="1">
-      <c r="A48" t="s" s="2">
+    <row r="48" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C48" s="7"/>
@@ -1499,11 +1812,11 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" ht="20" customHeight="1">
-      <c r="A49" t="s" s="2">
+    <row r="49" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B49" t="s" s="2">
+      <c r="B49" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C49" s="7"/>
@@ -1513,9 +1826,9 @@
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" ht="20" customHeight="1">
+    <row r="50" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
-      <c r="B50" t="s" s="2">
+      <c r="B50" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C50" s="7"/>
@@ -1525,9 +1838,9 @@
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" ht="20" customHeight="1">
+    <row r="51" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
-      <c r="B51" t="s" s="2">
+      <c r="B51" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C51" s="7"/>
@@ -1537,9 +1850,9 @@
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" ht="20" customHeight="1">
+    <row r="52" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
-      <c r="B52" t="s" s="2">
+      <c r="B52" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C52" s="7"/>
@@ -1549,11 +1862,11 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" ht="20" customHeight="1">
-      <c r="A53" t="s" s="2">
+    <row r="53" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B53" t="s" s="2">
+      <c r="B53" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C53" s="7"/>
@@ -1563,11 +1876,11 @@
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" ht="20" customHeight="1">
-      <c r="A54" t="s" s="2">
+    <row r="54" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C54" s="7"/>
@@ -1577,11 +1890,11 @@
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" ht="20" customHeight="1">
-      <c r="A55" t="s" s="2">
+    <row r="55" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B55" t="s" s="2">
+      <c r="B55" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C55" s="7"/>
@@ -1591,9 +1904,9 @@
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" ht="20" customHeight="1">
+    <row r="56" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
-      <c r="B56" t="s" s="2">
+      <c r="B56" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C56" s="7"/>
@@ -1603,9 +1916,9 @@
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" ht="20" customHeight="1">
+    <row r="57" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
-      <c r="B57" t="s" s="2">
+      <c r="B57" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C57" s="7"/>
@@ -1615,9 +1928,9 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" ht="20" customHeight="1">
+    <row r="58" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
-      <c r="B58" t="s" s="2">
+      <c r="B58" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C58" s="7"/>
@@ -1627,11 +1940,11 @@
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" ht="20" customHeight="1">
-      <c r="A59" t="s" s="2">
+    <row r="59" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B59" t="s" s="2">
+      <c r="B59" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C59" s="7"/>
@@ -1641,11 +1954,11 @@
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" ht="20" customHeight="1">
-      <c r="A60" t="s" s="2">
+    <row r="60" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B60" t="s" s="2">
+      <c r="B60" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C60" s="7"/>
@@ -1655,11 +1968,11 @@
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" ht="20" customHeight="1">
-      <c r="A61" t="s" s="2">
+    <row r="61" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B61" t="s" s="2">
+      <c r="B61" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C61" s="7"/>
@@ -1669,11 +1982,11 @@
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" ht="20" customHeight="1">
-      <c r="A62" t="s" s="2">
+    <row r="62" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C62" s="7"/>
@@ -1683,11 +1996,11 @@
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" ht="20" customHeight="1">
-      <c r="A63" t="s" s="2">
+    <row r="63" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B63" t="s" s="2">
+      <c r="B63" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C63" s="7"/>
@@ -1697,9 +2010,9 @@
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" ht="20" customHeight="1">
+    <row r="64" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
-      <c r="B64" t="s" s="2">
+      <c r="B64" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C64" s="7"/>
@@ -1709,9 +2022,9 @@
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" ht="20" customHeight="1">
+    <row r="65" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
-      <c r="B65" t="s" s="2">
+      <c r="B65" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C65" s="7"/>
@@ -1721,11 +2034,11 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" ht="20" customHeight="1">
-      <c r="A66" t="s" s="2">
+    <row r="66" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C66" s="7"/>
@@ -1735,11 +2048,11 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" ht="20" customHeight="1">
-      <c r="A67" t="s" s="2">
+    <row r="67" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B67" t="s" s="2">
+      <c r="B67" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C67" s="7"/>
@@ -1749,11 +2062,11 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" ht="20" customHeight="1">
-      <c r="A68" t="s" s="2">
+    <row r="68" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B68" t="s" s="2">
+      <c r="B68" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C68" s="7"/>
@@ -1763,11 +2076,11 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" ht="20" customHeight="1">
-      <c r="A69" t="s" s="2">
+    <row r="69" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C69" s="7"/>
@@ -1777,11 +2090,11 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" ht="20" customHeight="1">
-      <c r="A70" t="s" s="2">
+    <row r="70" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B70" t="s" s="2">
+      <c r="B70" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C70" s="7"/>
@@ -1791,11 +2104,11 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" ht="20" customHeight="1">
-      <c r="A71" t="s" s="2">
+    <row r="71" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B71" t="s" s="2">
+      <c r="B71" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C71" s="7"/>
@@ -1805,11 +2118,11 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" ht="21" customHeight="1">
-      <c r="A72" t="s" s="5">
+    <row r="72" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="B72" t="s" s="2">
+      <c r="B72" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C72" s="7"/>
@@ -1819,11 +2132,11 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" ht="20" customHeight="1">
-      <c r="A73" t="s" s="2">
+    <row r="73" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C73" s="7"/>
@@ -1833,11 +2146,11 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" ht="20" customHeight="1">
-      <c r="A74" t="s" s="2">
+    <row r="74" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C74" s="7"/>
@@ -1847,11 +2160,11 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" ht="20" customHeight="1">
-      <c r="A75" t="s" s="2">
+    <row r="75" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="B75" t="s" s="2">
+      <c r="B75" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C75" s="7"/>
@@ -1861,11 +2174,11 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" ht="20" customHeight="1">
-      <c r="A76" t="s" s="2">
+    <row r="76" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B76" t="s" s="2">
+      <c r="B76" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C76" s="7"/>
@@ -1875,11 +2188,11 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" ht="20" customHeight="1">
-      <c r="A77" t="s" s="2">
+    <row r="77" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C77" s="7"/>
@@ -1889,11 +2202,11 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" ht="20" customHeight="1">
-      <c r="A78" t="s" s="2">
+    <row r="78" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B78" t="s" s="2">
+      <c r="B78" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C78" s="7"/>
@@ -1903,11 +2216,11 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" ht="20" customHeight="1">
-      <c r="A79" t="s" s="2">
+    <row r="79" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B79" t="s" s="2">
+      <c r="B79" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C79" s="7"/>
@@ -1917,11 +2230,11 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" ht="20" customHeight="1">
-      <c r="A80" t="s" s="2">
+    <row r="80" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B80" t="s" s="2">
+      <c r="B80" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C80" s="7"/>
@@ -1931,11 +2244,11 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" ht="20" customHeight="1">
-      <c r="A81" t="s" s="2">
+    <row r="81" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B81" t="s" s="2">
+      <c r="B81" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C81" s="7"/>
@@ -1945,11 +2258,11 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" ht="20" customHeight="1">
-      <c r="A82" t="s" s="2">
+    <row r="82" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C82" s="7"/>
@@ -1959,11 +2272,11 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" ht="20" customHeight="1">
-      <c r="A83" t="s" s="2">
+    <row r="83" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B83" t="s" s="2">
+      <c r="B83" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C83" s="7"/>
@@ -1973,11 +2286,11 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" ht="20" customHeight="1">
-      <c r="A84" t="s" s="2">
+    <row r="84" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B84" t="s" s="2">
+      <c r="B84" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C84" s="7"/>
@@ -1987,11 +2300,11 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" ht="20" customHeight="1">
-      <c r="A85" t="s" s="2">
+    <row r="85" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B85" t="s" s="2">
+      <c r="B85" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C85" s="7"/>
@@ -2001,11 +2314,11 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" ht="20" customHeight="1">
-      <c r="A86" t="s" s="2">
+    <row r="86" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C86" s="7"/>
@@ -2015,11 +2328,11 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" ht="21" customHeight="1">
-      <c r="A87" t="s" s="5">
+    <row r="87" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B87" t="s" s="2">
+      <c r="B87" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C87" s="7"/>
@@ -2029,11 +2342,11 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" ht="21" customHeight="1">
-      <c r="A88" t="s" s="5">
+    <row r="88" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B88" t="s" s="2">
+      <c r="B88" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C88" s="7"/>
@@ -2043,11 +2356,11 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" ht="21" customHeight="1">
-      <c r="A89" t="s" s="5">
+    <row r="89" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C89" s="7"/>
@@ -2057,11 +2370,11 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" ht="21" customHeight="1">
-      <c r="A90" t="s" s="5">
+    <row r="90" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B90" t="s" s="2">
+      <c r="B90" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C90" s="7"/>
@@ -2071,11 +2384,11 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" ht="21" customHeight="1">
-      <c r="A91" t="s" s="5">
+    <row r="91" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B91" t="s" s="2">
+      <c r="B91" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C91" s="7"/>
@@ -2085,11 +2398,11 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" ht="21" customHeight="1">
-      <c r="A92" t="s" s="5">
+    <row r="92" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B92" t="s" s="2">
+      <c r="B92" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C92" s="7"/>
@@ -2099,11 +2412,11 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" ht="21" customHeight="1">
-      <c r="A93" t="s" s="5">
+    <row r="93" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B93" t="s" s="2">
+      <c r="B93" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C93" s="7"/>
@@ -2113,11 +2426,11 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" ht="21" customHeight="1">
-      <c r="A94" t="s" s="5">
+    <row r="94" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C94" s="7"/>
@@ -2127,11 +2440,11 @@
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
     </row>
-    <row r="95" ht="21" customHeight="1">
-      <c r="A95" t="s" s="5">
+    <row r="95" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C95" s="7"/>
@@ -2141,11 +2454,11 @@
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" ht="21" customHeight="1">
-      <c r="A96" t="s" s="5">
+    <row r="96" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B96" t="s" s="2">
+      <c r="B96" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C96" s="7"/>
@@ -2155,11 +2468,11 @@
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" ht="21" customHeight="1">
-      <c r="A97" t="s" s="5">
+    <row r="97" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C97" s="7"/>
@@ -2169,11 +2482,11 @@
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
     </row>
-    <row r="98" ht="21" customHeight="1">
-      <c r="A98" t="s" s="5">
+    <row r="98" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="B98" t="s" s="2">
+      <c r="B98" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C98" s="7"/>
@@ -2183,11 +2496,11 @@
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
     </row>
-    <row r="99" ht="21" customHeight="1">
-      <c r="A99" t="s" s="5">
+    <row r="99" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B99" t="s" s="2">
+      <c r="B99" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C99" s="7"/>
@@ -2197,11 +2510,11 @@
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
     </row>
-    <row r="100" ht="21" customHeight="1">
-      <c r="A100" t="s" s="5">
+    <row r="100" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C100" s="7"/>
@@ -2211,11 +2524,11 @@
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
     </row>
-    <row r="101" ht="21" customHeight="1">
-      <c r="A101" t="s" s="5">
+    <row r="101" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B101" t="s" s="2">
+      <c r="B101" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C101" s="7"/>
@@ -2225,12 +2538,10 @@
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
     </row>
-    <row r="102" ht="21" customHeight="1">
-      <c r="A102" t="s" s="5">
+    <row r="102" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="5"/>
+      <c r="B102" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B102" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -2239,10 +2550,10 @@
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
     </row>
-    <row r="103" ht="20" customHeight="1">
+    <row r="103" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
-      <c r="B103" t="s" s="2">
-        <v>191</v>
+      <c r="B103" s="2" t="s">
+        <v>190</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -2251,12 +2562,10 @@
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
     </row>
-    <row r="104" ht="21" customHeight="1">
-      <c r="A104" t="s" s="5">
-        <v>192</v>
-      </c>
-      <c r="B104" t="s" s="2">
-        <v>193</v>
+    <row r="104" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="5"/>
+      <c r="B104" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -2265,12 +2574,12 @@
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" ht="21" customHeight="1">
-      <c r="A105" t="s" s="5">
-        <v>194</v>
-      </c>
-      <c r="B105" t="s" s="2">
-        <v>195</v>
+    <row r="105" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -2279,12 +2588,12 @@
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" ht="21" customHeight="1">
-      <c r="A106" t="s" s="5">
-        <v>196</v>
-      </c>
-      <c r="B106" t="s" s="2">
-        <v>197</v>
+    <row r="106" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -2293,12 +2602,12 @@
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
     </row>
-    <row r="107" ht="21" customHeight="1">
-      <c r="A107" t="s" s="5">
-        <v>198</v>
-      </c>
-      <c r="B107" t="s" s="2">
-        <v>199</v>
+    <row r="107" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>197</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -2307,12 +2616,12 @@
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
     </row>
-    <row r="108" ht="21" customHeight="1">
-      <c r="A108" t="s" s="5">
-        <v>200</v>
-      </c>
-      <c r="B108" t="s" s="2">
-        <v>201</v>
+    <row r="108" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
@@ -2321,12 +2630,12 @@
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" ht="21" customHeight="1">
-      <c r="A109" t="s" s="5">
-        <v>202</v>
-      </c>
-      <c r="B109" t="s" s="2">
-        <v>203</v>
+    <row r="109" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -2335,12 +2644,12 @@
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
     </row>
-    <row r="110" ht="21" customHeight="1">
-      <c r="A110" t="s" s="5">
-        <v>204</v>
-      </c>
-      <c r="B110" t="s" s="2">
-        <v>205</v>
+    <row r="110" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
@@ -2349,10 +2658,10 @@
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
     </row>
-    <row r="111" ht="20" customHeight="1">
+    <row r="111" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
-      <c r="B111" t="s" s="2">
-        <v>206</v>
+      <c r="B111" s="2" t="s">
+        <v>204</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -2361,10 +2670,10 @@
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
     </row>
-    <row r="112" ht="20" customHeight="1">
+    <row r="112" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
-      <c r="B112" t="s" s="2">
-        <v>207</v>
+      <c r="B112" s="2" t="s">
+        <v>205</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -2373,10 +2682,10 @@
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" ht="20" customHeight="1">
+    <row r="113" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
-      <c r="B113" t="s" s="2">
-        <v>208</v>
+      <c r="B113" s="2" t="s">
+        <v>206</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -2385,10 +2694,10 @@
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" ht="20" customHeight="1">
+    <row r="114" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
-      <c r="B114" t="s" s="2">
-        <v>209</v>
+      <c r="B114" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -2397,10 +2706,10 @@
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" ht="20" customHeight="1">
+    <row r="115" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
-      <c r="B115" t="s" s="2">
-        <v>210</v>
+      <c r="B115" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -2409,10 +2718,10 @@
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
     </row>
-    <row r="116" ht="20" customHeight="1">
+    <row r="116" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
-      <c r="B116" t="s" s="2">
-        <v>211</v>
+      <c r="B116" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -2421,10 +2730,10 @@
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
     </row>
-    <row r="117" ht="20" customHeight="1">
+    <row r="117" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
-      <c r="B117" t="s" s="2">
-        <v>212</v>
+      <c r="B117" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -2433,10 +2742,10 @@
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" ht="20" customHeight="1">
+    <row r="118" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
-      <c r="B118" t="s" s="2">
-        <v>213</v>
+      <c r="B118" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -2445,10 +2754,10 @@
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" ht="20" customHeight="1">
+    <row r="119" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
-      <c r="B119" t="s" s="2">
-        <v>214</v>
+      <c r="B119" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
@@ -2457,10 +2766,10 @@
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
     </row>
-    <row r="120" ht="20" customHeight="1">
+    <row r="120" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
-      <c r="B120" t="s" s="2">
-        <v>215</v>
+      <c r="B120" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -2469,10 +2778,10 @@
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
     </row>
-    <row r="121" ht="20" customHeight="1">
+    <row r="121" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
-      <c r="B121" t="s" s="2">
-        <v>216</v>
+      <c r="B121" s="2" t="s">
+        <v>214</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -2481,10 +2790,10 @@
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" ht="20" customHeight="1">
+    <row r="122" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
-      <c r="B122" t="s" s="2">
-        <v>217</v>
+      <c r="B122" s="2" t="s">
+        <v>215</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -2493,10 +2802,10 @@
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
     </row>
-    <row r="123" ht="20" customHeight="1">
+    <row r="123" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8"/>
-      <c r="B123" t="s" s="2">
-        <v>218</v>
+      <c r="B123" s="2" t="s">
+        <v>216</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -2505,10 +2814,10 @@
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
     </row>
-    <row r="124" ht="20" customHeight="1">
+    <row r="124" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
-      <c r="B124" t="s" s="2">
-        <v>219</v>
+      <c r="B124" s="2" t="s">
+        <v>217</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -2517,10 +2826,10 @@
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" ht="20" customHeight="1">
+    <row r="125" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
-      <c r="B125" t="s" s="2">
-        <v>220</v>
+      <c r="B125" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -2529,10 +2838,10 @@
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
     </row>
-    <row r="126" ht="20" customHeight="1">
+    <row r="126" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8"/>
-      <c r="B126" t="s" s="2">
-        <v>221</v>
+      <c r="B126" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -2541,10 +2850,10 @@
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
     </row>
-    <row r="127" ht="20" customHeight="1">
+    <row r="127" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8"/>
-      <c r="B127" t="s" s="2">
-        <v>222</v>
+      <c r="B127" s="2" t="s">
+        <v>220</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -2553,12 +2862,12 @@
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
     </row>
-    <row r="128" ht="21" customHeight="1">
-      <c r="A128" t="s" s="5">
-        <v>223</v>
-      </c>
-      <c r="B128" t="s" s="2">
-        <v>224</v>
+    <row r="128" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>222</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -2567,10 +2876,10 @@
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
     </row>
-    <row r="129" ht="20" customHeight="1">
+    <row r="129" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8"/>
-      <c r="B129" t="s" s="2">
-        <v>225</v>
+      <c r="B129" s="2" t="s">
+        <v>223</v>
       </c>
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
@@ -2581,7 +2890,7 @@
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;"Helvetica,Regular"&amp;11&amp;P</oddFooter>
   </headerFooter>

--- a/opcodesordenados.xlsx
+++ b/opcodesordenados.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21000" windowHeight="14600"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
   <si>
     <t>Instrucción</t>
   </si>
@@ -699,13 +699,16 @@
   </si>
   <si>
     <t>0100000</t>
+  </si>
+  <si>
+    <t>NOT (B),A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -725,6 +728,18 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Verdana"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="2">
@@ -759,8 +774,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
@@ -790,7 +823,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1139,8 +1178,8 @@
   </sheetPr>
   <dimension ref="A1:IV129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D104" sqref="D104"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2329,8 +2368,8 @@
       <c r="H86" s="7"/>
     </row>
     <row r="87" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
-        <v>159</v>
+      <c r="A87" s="1" t="s">
+        <v>225</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>160</v>
@@ -2344,7 +2383,7 @@
     </row>
     <row r="88" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>162</v>
@@ -2358,7 +2397,7 @@
     </row>
     <row r="89" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>164</v>
@@ -2372,7 +2411,7 @@
     </row>
     <row r="90" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>166</v>
@@ -2386,7 +2425,7 @@
     </row>
     <row r="91" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>168</v>
@@ -2400,7 +2439,7 @@
     </row>
     <row r="92" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>170</v>
@@ -2414,7 +2453,7 @@
     </row>
     <row r="93" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>172</v>
@@ -2428,7 +2467,7 @@
     </row>
     <row r="94" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>174</v>
@@ -2442,7 +2481,7 @@
     </row>
     <row r="95" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>176</v>
@@ -2456,7 +2495,7 @@
     </row>
     <row r="96" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>178</v>
@@ -2470,7 +2509,7 @@
     </row>
     <row r="97" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>180</v>
@@ -2484,7 +2523,7 @@
     </row>
     <row r="98" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>182</v>
@@ -2498,7 +2537,7 @@
     </row>
     <row r="99" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>184</v>
@@ -2512,7 +2551,7 @@
     </row>
     <row r="100" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B100" s="2" t="s">
         <v>186</v>
@@ -2526,7 +2565,7 @@
     </row>
     <row r="101" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>188</v>
@@ -2539,7 +2578,9 @@
       <c r="H101" s="7"/>
     </row>
     <row r="102" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="5"/>
+      <c r="A102" s="5" t="s">
+        <v>187</v>
+      </c>
       <c r="B102" s="2" t="s">
         <v>189</v>
       </c>

--- a/opcodesordenados.xlsx
+++ b/opcodesordenados.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Documents/ArquiProyectos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nacosta\Documents\DEV\Arqui\ArquiProyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>Instrucción</t>
   </si>
@@ -702,6 +702,12 @@
   </si>
   <si>
     <t>NOT (B),A</t>
+  </si>
+  <si>
+    <t>ERROR: OPCODE 1000110 USADO EN AND B,Dir</t>
+  </si>
+  <si>
+    <t>ERROR</t>
   </si>
 </sst>
 </file>
@@ -824,12 +830,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -905,6 +911,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1173,21 +1182,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV129"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B129"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="256" width="9" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1195,13 +1206,15 @@
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>227</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1215,7 +1228,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1229,7 +1242,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1243,7 +1256,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1257,7 +1270,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1271,7 +1284,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1285,7 +1298,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1299,7 +1312,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1313,7 +1326,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -1327,7 +1340,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1341,7 +1354,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1355,7 +1368,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1369,7 +1382,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1383,7 +1396,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1397,7 +1410,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1411,7 +1424,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
@@ -1425,7 +1438,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1439,7 +1452,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1453,7 +1466,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1467,7 +1480,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1481,7 +1494,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
@@ -1495,7 +1508,7 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1509,7 +1522,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1523,7 +1536,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1537,7 +1550,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1551,7 +1564,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1565,7 +1578,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
@@ -1579,7 +1592,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1593,7 +1606,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1607,7 +1620,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -1621,7 +1634,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1635,7 +1648,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -1649,7 +1662,7 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>66</v>
       </c>
@@ -1663,7 +1676,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>67</v>
       </c>
@@ -1677,7 +1690,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
@@ -1691,7 +1704,7 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
@@ -1705,7 +1718,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="2" t="s">
         <v>73</v>
@@ -1717,7 +1730,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="2" t="s">
         <v>74</v>
@@ -1729,7 +1742,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="2" t="s">
         <v>75</v>
@@ -1741,7 +1754,7 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="2" t="s">
         <v>76</v>
@@ -1753,7 +1766,7 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>77</v>
       </c>
@@ -1767,7 +1780,7 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>79</v>
       </c>
@@ -1781,7 +1794,7 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>81</v>
       </c>
@@ -1795,7 +1808,7 @@
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>83</v>
       </c>
@@ -1809,7 +1822,7 @@
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>85</v>
       </c>
@@ -1823,7 +1836,7 @@
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>87</v>
       </c>
@@ -1837,7 +1850,7 @@
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>89</v>
       </c>
@@ -1851,7 +1864,7 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>91</v>
       </c>
@@ -1865,7 +1878,7 @@
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="2" t="s">
         <v>93</v>
@@ -1877,7 +1890,7 @@
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="2" t="s">
         <v>94</v>
@@ -1889,7 +1902,7 @@
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="2" t="s">
         <v>95</v>
@@ -1901,7 +1914,7 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>96</v>
       </c>
@@ -1915,7 +1928,7 @@
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>98</v>
       </c>
@@ -1929,7 +1942,7 @@
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>100</v>
       </c>
@@ -1943,7 +1956,7 @@
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="2" t="s">
         <v>102</v>
@@ -1955,7 +1968,7 @@
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="2" t="s">
         <v>103</v>
@@ -1967,7 +1980,7 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="2" t="s">
         <v>104</v>
@@ -1979,7 +1992,7 @@
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>105</v>
       </c>
@@ -1993,7 +2006,7 @@
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>107</v>
       </c>
@@ -2007,7 +2020,7 @@
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>109</v>
       </c>
@@ -2021,7 +2034,7 @@
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>111</v>
       </c>
@@ -2035,7 +2048,7 @@
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>113</v>
       </c>
@@ -2049,7 +2062,7 @@
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="2" t="s">
         <v>115</v>
@@ -2061,7 +2074,7 @@
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="2" t="s">
         <v>116</v>
@@ -2073,7 +2086,7 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>117</v>
       </c>
@@ -2087,7 +2100,7 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>119</v>
       </c>
@@ -2101,7 +2114,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>121</v>
       </c>
@@ -2115,7 +2128,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>123</v>
       </c>
@@ -2129,7 +2142,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>125</v>
       </c>
@@ -2143,7 +2156,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>127</v>
       </c>
@@ -2157,21 +2170,25 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
+      <c r="C72" s="7">
+        <v>1101101</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>226</v>
+      </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>131</v>
       </c>
@@ -2185,7 +2202,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>133</v>
       </c>
@@ -2199,7 +2216,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>135</v>
       </c>
@@ -2213,7 +2230,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>137</v>
       </c>
@@ -2227,7 +2244,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>139</v>
       </c>
@@ -2241,7 +2258,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>141</v>
       </c>
@@ -2255,7 +2272,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>143</v>
       </c>
@@ -2269,7 +2286,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>145</v>
       </c>
@@ -2283,7 +2300,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>147</v>
       </c>
@@ -2297,7 +2314,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>149</v>
       </c>
@@ -2311,7 +2328,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>151</v>
       </c>
@@ -2325,7 +2342,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>153</v>
       </c>
@@ -2339,7 +2356,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>155</v>
       </c>
@@ -2353,7 +2370,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>157</v>
       </c>
@@ -2367,7 +2384,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>225</v>
       </c>
@@ -2381,7 +2398,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>159</v>
       </c>
@@ -2395,7 +2412,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>161</v>
       </c>
@@ -2409,7 +2426,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>163</v>
       </c>
@@ -2423,7 +2440,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>165</v>
       </c>
@@ -2437,7 +2454,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>167</v>
       </c>
@@ -2451,7 +2468,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>169</v>
       </c>
@@ -2465,7 +2482,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>171</v>
       </c>
@@ -2479,7 +2496,7 @@
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
     </row>
-    <row r="95" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>173</v>
       </c>
@@ -2493,7 +2510,7 @@
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>175</v>
       </c>
@@ -2507,7 +2524,7 @@
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>177</v>
       </c>
@@ -2521,35 +2538,39 @@
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
     </row>
-    <row r="98" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C98" s="7"/>
+      <c r="C98" s="7">
+        <v>1101110</v>
+      </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
     </row>
-    <row r="99" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>181</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C99" s="7"/>
+      <c r="C99" s="7">
+        <v>1101111</v>
+      </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
     </row>
-    <row r="100" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>183</v>
       </c>
@@ -2563,7 +2584,7 @@
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
     </row>
-    <row r="101" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>185</v>
       </c>
@@ -2577,7 +2598,7 @@
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
     </row>
-    <row r="102" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>187</v>
       </c>
@@ -2591,7 +2612,7 @@
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
     </row>
-    <row r="103" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="2" t="s">
         <v>190</v>
@@ -2603,7 +2624,7 @@
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
     </row>
-    <row r="104" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="2" t="s">
         <v>191</v>
@@ -2615,7 +2636,7 @@
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>192</v>
       </c>
@@ -2629,7 +2650,7 @@
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>194</v>
       </c>
@@ -2643,7 +2664,7 @@
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
     </row>
-    <row r="107" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>196</v>
       </c>
@@ -2657,7 +2678,7 @@
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
     </row>
-    <row r="108" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>198</v>
       </c>
@@ -2671,7 +2692,7 @@
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>200</v>
       </c>
@@ -2685,7 +2706,7 @@
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
     </row>
-    <row r="110" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>202</v>
       </c>
@@ -2699,7 +2720,7 @@
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
     </row>
-    <row r="111" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="2" t="s">
         <v>204</v>
@@ -2711,7 +2732,7 @@
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
     </row>
-    <row r="112" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="2" t="s">
         <v>205</v>
@@ -2723,7 +2744,7 @@
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="2" t="s">
         <v>206</v>
@@ -2735,7 +2756,7 @@
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="2" t="s">
         <v>207</v>
@@ -2747,7 +2768,7 @@
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="2" t="s">
         <v>208</v>
@@ -2759,7 +2780,7 @@
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
     </row>
-    <row r="116" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="2" t="s">
         <v>209</v>
@@ -2771,7 +2792,7 @@
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
     </row>
-    <row r="117" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="2" t="s">
         <v>210</v>
@@ -2783,7 +2804,7 @@
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="2" t="s">
         <v>211</v>
@@ -2795,7 +2816,7 @@
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="2" t="s">
         <v>212</v>
@@ -2807,7 +2828,7 @@
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
     </row>
-    <row r="120" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="2" t="s">
         <v>213</v>
@@ -2819,7 +2840,7 @@
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
     </row>
-    <row r="121" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="2" t="s">
         <v>214</v>
@@ -2831,7 +2852,7 @@
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="2" t="s">
         <v>215</v>
@@ -2843,7 +2864,7 @@
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
     </row>
-    <row r="123" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="2" t="s">
         <v>216</v>
@@ -2855,7 +2876,7 @@
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
     </row>
-    <row r="124" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="2" t="s">
         <v>217</v>
@@ -2867,7 +2888,7 @@
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="2" t="s">
         <v>218</v>
@@ -2879,7 +2900,7 @@
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
     </row>
-    <row r="126" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="2" t="s">
         <v>219</v>
@@ -2891,7 +2912,7 @@
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
     </row>
-    <row r="127" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="2" t="s">
         <v>220</v>
@@ -2903,7 +2924,7 @@
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
     </row>
-    <row r="128" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>221</v>
       </c>
@@ -2917,7 +2938,7 @@
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
     </row>
-    <row r="129" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="2" t="s">
         <v>223</v>

--- a/opcodesordenados.xlsx
+++ b/opcodesordenados.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nacosta\Documents\DEV\Arqui\ArquiProyectos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Documents/ArquiProyectos/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
   <si>
     <t>Instrucción</t>
   </si>
@@ -702,9 +702,6 @@
   </si>
   <si>
     <t>NOT (B),A</t>
-  </si>
-  <si>
-    <t>ERROR: OPCODE 1000110 USADO EN AND B,Dir</t>
   </si>
   <si>
     <t>ERROR</t>
@@ -780,8 +777,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -829,13 +832,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="7">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
+  <cellStyles count="9">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1182,23 +1187,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1207,14 +1212,14 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1228,7 +1233,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1242,7 +1247,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1256,7 +1261,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1270,7 +1275,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1284,7 +1289,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1298,7 +1303,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1312,7 +1317,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1326,7 +1331,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -1340,7 +1345,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1354,7 +1359,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1368,7 +1373,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1382,7 +1387,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1396,7 +1401,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1410,7 +1415,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1424,7 +1429,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
@@ -1438,7 +1443,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1452,7 +1457,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1466,7 +1471,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1480,7 +1485,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1494,7 +1499,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
@@ -1508,7 +1513,7 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1522,7 +1527,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1536,7 +1541,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1550,7 +1555,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1564,7 +1569,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1578,7 +1583,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
@@ -1592,7 +1597,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1606,7 +1611,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1620,7 +1625,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -1634,7 +1639,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1648,7 +1653,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -1662,7 +1667,7 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5" t="s">
         <v>66</v>
       </c>
@@ -1676,7 +1681,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>67</v>
       </c>
@@ -1690,7 +1695,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
@@ -1704,7 +1709,7 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
@@ -1718,7 +1723,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="2" t="s">
         <v>73</v>
@@ -1730,7 +1735,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="5"/>
       <c r="B39" s="2" t="s">
         <v>74</v>
@@ -1742,7 +1747,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="5"/>
       <c r="B40" s="2" t="s">
         <v>75</v>
@@ -1754,7 +1759,7 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="5"/>
       <c r="B41" s="2" t="s">
         <v>76</v>
@@ -1766,7 +1771,7 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>77</v>
       </c>
@@ -1780,7 +1785,7 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>79</v>
       </c>
@@ -1794,7 +1799,7 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>81</v>
       </c>
@@ -1808,7 +1813,7 @@
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>83</v>
       </c>
@@ -1822,7 +1827,7 @@
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
         <v>85</v>
       </c>
@@ -1836,7 +1841,7 @@
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>87</v>
       </c>
@@ -1850,7 +1855,7 @@
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>89</v>
       </c>
@@ -1864,7 +1869,7 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>91</v>
       </c>
@@ -1878,7 +1883,7 @@
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="8"/>
       <c r="B50" s="2" t="s">
         <v>93</v>
@@ -1890,7 +1895,7 @@
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8"/>
       <c r="B51" s="2" t="s">
         <v>94</v>
@@ -1902,7 +1907,7 @@
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="8"/>
       <c r="B52" s="2" t="s">
         <v>95</v>
@@ -1914,7 +1919,7 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>96</v>
       </c>
@@ -1928,7 +1933,7 @@
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>98</v>
       </c>
@@ -1942,7 +1947,7 @@
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>100</v>
       </c>
@@ -1956,7 +1961,7 @@
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="8"/>
       <c r="B56" s="2" t="s">
         <v>102</v>
@@ -1968,7 +1973,7 @@
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="8"/>
       <c r="B57" s="2" t="s">
         <v>103</v>
@@ -1980,7 +1985,7 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" s="2" t="s">
         <v>104</v>
@@ -1992,7 +1997,7 @@
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>105</v>
       </c>
@@ -2006,7 +2011,7 @@
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>107</v>
       </c>
@@ -2020,7 +2025,7 @@
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>109</v>
       </c>
@@ -2034,7 +2039,7 @@
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>111</v>
       </c>
@@ -2048,7 +2053,7 @@
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>113</v>
       </c>
@@ -2062,7 +2067,7 @@
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="8"/>
       <c r="B64" s="2" t="s">
         <v>115</v>
@@ -2074,7 +2079,7 @@
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="8"/>
       <c r="B65" s="2" t="s">
         <v>116</v>
@@ -2086,7 +2091,7 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>117</v>
       </c>
@@ -2100,7 +2105,7 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>119</v>
       </c>
@@ -2114,7 +2119,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>121</v>
       </c>
@@ -2128,7 +2133,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>123</v>
       </c>
@@ -2142,7 +2147,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>125</v>
       </c>
@@ -2156,7 +2161,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>127</v>
       </c>
@@ -2170,25 +2175,21 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C72" s="7">
-        <v>1101101</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>226</v>
-      </c>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>131</v>
       </c>
@@ -2202,7 +2203,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>133</v>
       </c>
@@ -2216,7 +2217,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>135</v>
       </c>
@@ -2230,7 +2231,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>137</v>
       </c>
@@ -2244,7 +2245,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>139</v>
       </c>
@@ -2258,7 +2259,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>141</v>
       </c>
@@ -2272,7 +2273,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>143</v>
       </c>
@@ -2286,7 +2287,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>145</v>
       </c>
@@ -2300,7 +2301,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>147</v>
       </c>
@@ -2314,7 +2315,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>149</v>
       </c>
@@ -2328,7 +2329,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>151</v>
       </c>
@@ -2342,7 +2343,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>153</v>
       </c>
@@ -2356,7 +2357,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>155</v>
       </c>
@@ -2370,7 +2371,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>157</v>
       </c>
@@ -2384,7 +2385,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>225</v>
       </c>
@@ -2398,7 +2399,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
         <v>159</v>
       </c>
@@ -2412,7 +2413,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>161</v>
       </c>
@@ -2426,7 +2427,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="5" t="s">
         <v>163</v>
       </c>
@@ -2440,7 +2441,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="5" t="s">
         <v>165</v>
       </c>
@@ -2454,7 +2455,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
         <v>167</v>
       </c>
@@ -2468,7 +2469,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="5" t="s">
         <v>169</v>
       </c>
@@ -2482,7 +2483,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
         <v>171</v>
       </c>
@@ -2496,7 +2497,7 @@
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
     </row>
-    <row r="95" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="5" t="s">
         <v>173</v>
       </c>
@@ -2510,7 +2511,7 @@
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
         <v>175</v>
       </c>
@@ -2524,7 +2525,7 @@
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="5" t="s">
         <v>177</v>
       </c>
@@ -2538,39 +2539,35 @@
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
     </row>
-    <row r="98" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C98" s="7">
-        <v>1101110</v>
-      </c>
+      <c r="C98" s="7"/>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
     </row>
-    <row r="99" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
         <v>181</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C99" s="7">
-        <v>1101111</v>
-      </c>
+      <c r="C99" s="7"/>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
     </row>
-    <row r="100" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>183</v>
       </c>
@@ -2584,7 +2581,7 @@
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
     </row>
-    <row r="101" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="5" t="s">
         <v>185</v>
       </c>
@@ -2598,7 +2595,7 @@
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
     </row>
-    <row r="102" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
         <v>187</v>
       </c>
@@ -2612,7 +2609,7 @@
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
     </row>
-    <row r="103" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="8"/>
       <c r="B103" s="2" t="s">
         <v>190</v>
@@ -2624,7 +2621,7 @@
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
     </row>
-    <row r="104" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="2" t="s">
         <v>191</v>
@@ -2636,7 +2633,7 @@
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
         <v>192</v>
       </c>
@@ -2650,7 +2647,7 @@
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="5" t="s">
         <v>194</v>
       </c>
@@ -2664,7 +2661,7 @@
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
     </row>
-    <row r="107" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="5" t="s">
         <v>196</v>
       </c>
@@ -2678,7 +2675,7 @@
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
     </row>
-    <row r="108" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="5" t="s">
         <v>198</v>
       </c>
@@ -2692,7 +2689,7 @@
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
         <v>200</v>
       </c>
@@ -2706,7 +2703,7 @@
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
     </row>
-    <row r="110" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
         <v>202</v>
       </c>
@@ -2720,7 +2717,7 @@
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
     </row>
-    <row r="111" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8"/>
       <c r="B111" s="2" t="s">
         <v>204</v>
@@ -2732,7 +2729,7 @@
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
     </row>
-    <row r="112" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8"/>
       <c r="B112" s="2" t="s">
         <v>205</v>
@@ -2744,7 +2741,7 @@
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8"/>
       <c r="B113" s="2" t="s">
         <v>206</v>
@@ -2756,7 +2753,7 @@
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8"/>
       <c r="B114" s="2" t="s">
         <v>207</v>
@@ -2768,7 +2765,7 @@
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8"/>
       <c r="B115" s="2" t="s">
         <v>208</v>
@@ -2780,7 +2777,7 @@
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
     </row>
-    <row r="116" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="8"/>
       <c r="B116" s="2" t="s">
         <v>209</v>
@@ -2792,7 +2789,7 @@
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
     </row>
-    <row r="117" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="8"/>
       <c r="B117" s="2" t="s">
         <v>210</v>
@@ -2804,7 +2801,7 @@
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="8"/>
       <c r="B118" s="2" t="s">
         <v>211</v>
@@ -2816,7 +2813,7 @@
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8"/>
       <c r="B119" s="2" t="s">
         <v>212</v>
@@ -2828,7 +2825,7 @@
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
     </row>
-    <row r="120" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8"/>
       <c r="B120" s="2" t="s">
         <v>213</v>
@@ -2840,7 +2837,7 @@
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
     </row>
-    <row r="121" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="8"/>
       <c r="B121" s="2" t="s">
         <v>214</v>
@@ -2852,7 +2849,7 @@
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="8"/>
       <c r="B122" s="2" t="s">
         <v>215</v>
@@ -2864,7 +2861,7 @@
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
     </row>
-    <row r="123" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="8"/>
       <c r="B123" s="2" t="s">
         <v>216</v>
@@ -2876,7 +2873,7 @@
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
     </row>
-    <row r="124" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="8"/>
       <c r="B124" s="2" t="s">
         <v>217</v>
@@ -2888,7 +2885,7 @@
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="8"/>
       <c r="B125" s="2" t="s">
         <v>218</v>
@@ -2900,7 +2897,7 @@
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
     </row>
-    <row r="126" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="8"/>
       <c r="B126" s="2" t="s">
         <v>219</v>
@@ -2912,7 +2909,7 @@
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
     </row>
-    <row r="127" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="8"/>
       <c r="B127" s="2" t="s">
         <v>220</v>
@@ -2924,7 +2921,7 @@
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
     </row>
-    <row r="128" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="5" t="s">
         <v>221</v>
       </c>
@@ -2938,7 +2935,7 @@
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
     </row>
-    <row r="129" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="8"/>
       <c r="B129" s="2" t="s">
         <v>223</v>

--- a/opcodesordenados.xlsx
+++ b/opcodesordenados.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benjamin/Documents/ArquiProyectos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nacosta\Documents\DEV\Arqui\ArquiProyectos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16005"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="228">
   <si>
     <t>Instrucción</t>
   </si>
@@ -702,6 +702,9 @@
   </si>
   <si>
     <t>NOT (B),A</t>
+  </si>
+  <si>
+    <t>ERROR: OPCODE 1000110 USADO EN AND B,Dir</t>
   </si>
   <si>
     <t>ERROR</t>
@@ -777,14 +780,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -832,15 +829,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="9">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+  <cellStyles count="7">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1187,23 +1182,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV129"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B129"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.8984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1212,14 +1207,14 @@
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -1233,7 +1228,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1247,7 +1242,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1261,7 +1256,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1275,7 +1270,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1289,7 +1284,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1303,7 +1298,7 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1317,7 +1312,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1331,7 +1326,7 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
@@ -1345,7 +1340,7 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>20</v>
       </c>
@@ -1359,7 +1354,7 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>22</v>
       </c>
@@ -1373,7 +1368,7 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1387,7 +1382,7 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1401,7 +1396,7 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1415,7 +1410,7 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1429,7 +1424,7 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
@@ -1443,7 +1438,7 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1457,7 +1452,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1471,7 +1466,7 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1485,7 +1480,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1499,7 +1494,7 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>42</v>
       </c>
@@ -1513,7 +1508,7 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1527,7 +1522,7 @@
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -1541,7 +1536,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -1555,7 +1550,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -1569,7 +1564,7 @@
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
-    <row r="27" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -1583,7 +1578,7 @@
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>54</v>
       </c>
@@ -1597,7 +1592,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>56</v>
       </c>
@@ -1611,7 +1606,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>58</v>
       </c>
@@ -1625,7 +1620,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>60</v>
       </c>
@@ -1639,7 +1634,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>62</v>
       </c>
@@ -1653,7 +1648,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>64</v>
       </c>
@@ -1667,7 +1662,7 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>66</v>
       </c>
@@ -1681,7 +1676,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>67</v>
       </c>
@@ -1695,7 +1690,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>69</v>
       </c>
@@ -1709,7 +1704,7 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>71</v>
       </c>
@@ -1723,7 +1718,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="2" t="s">
         <v>73</v>
@@ -1735,7 +1730,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="2" t="s">
         <v>74</v>
@@ -1747,7 +1742,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="2" t="s">
         <v>75</v>
@@ -1759,7 +1754,7 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="2" t="s">
         <v>76</v>
@@ -1771,7 +1766,7 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>77</v>
       </c>
@@ -1785,7 +1780,7 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>79</v>
       </c>
@@ -1799,7 +1794,7 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>81</v>
       </c>
@@ -1813,7 +1808,7 @@
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>83</v>
       </c>
@@ -1827,7 +1822,7 @@
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>85</v>
       </c>
@@ -1841,7 +1836,7 @@
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>87</v>
       </c>
@@ -1855,7 +1850,7 @@
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>89</v>
       </c>
@@ -1869,7 +1864,7 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>91</v>
       </c>
@@ -1883,7 +1878,7 @@
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="2" t="s">
         <v>93</v>
@@ -1895,7 +1890,7 @@
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="2" t="s">
         <v>94</v>
@@ -1907,7 +1902,7 @@
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="2" t="s">
         <v>95</v>
@@ -1919,7 +1914,7 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>96</v>
       </c>
@@ -1933,7 +1928,7 @@
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>98</v>
       </c>
@@ -1947,7 +1942,7 @@
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>100</v>
       </c>
@@ -1961,7 +1956,7 @@
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="2" t="s">
         <v>102</v>
@@ -1973,7 +1968,7 @@
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="2" t="s">
         <v>103</v>
@@ -1985,7 +1980,7 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="2" t="s">
         <v>104</v>
@@ -1997,7 +1992,7 @@
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>105</v>
       </c>
@@ -2011,7 +2006,7 @@
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>107</v>
       </c>
@@ -2025,7 +2020,7 @@
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>109</v>
       </c>
@@ -2039,7 +2034,7 @@
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>111</v>
       </c>
@@ -2053,7 +2048,7 @@
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>113</v>
       </c>
@@ -2067,7 +2062,7 @@
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="2" t="s">
         <v>115</v>
@@ -2079,7 +2074,7 @@
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
-    <row r="65" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="2" t="s">
         <v>116</v>
@@ -2091,7 +2086,7 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>117</v>
       </c>
@@ -2105,7 +2100,7 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>119</v>
       </c>
@@ -2119,7 +2114,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>121</v>
       </c>
@@ -2133,7 +2128,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>123</v>
       </c>
@@ -2147,7 +2142,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>125</v>
       </c>
@@ -2161,7 +2156,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>127</v>
       </c>
@@ -2175,21 +2170,25 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5" t="s">
         <v>129</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C72" s="7"/>
-      <c r="D72" s="7"/>
+      <c r="C72" s="7">
+        <v>1101101</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>226</v>
+      </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>131</v>
       </c>
@@ -2203,7 +2202,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>133</v>
       </c>
@@ -2217,7 +2216,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>135</v>
       </c>
@@ -2231,7 +2230,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>137</v>
       </c>
@@ -2245,7 +2244,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>139</v>
       </c>
@@ -2259,7 +2258,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>141</v>
       </c>
@@ -2273,7 +2272,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>143</v>
       </c>
@@ -2287,7 +2286,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>145</v>
       </c>
@@ -2301,7 +2300,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>147</v>
       </c>
@@ -2315,7 +2314,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>149</v>
       </c>
@@ -2329,7 +2328,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>151</v>
       </c>
@@ -2343,7 +2342,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>153</v>
       </c>
@@ -2357,7 +2356,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>155</v>
       </c>
@@ -2371,7 +2370,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>157</v>
       </c>
@@ -2385,7 +2384,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>225</v>
       </c>
@@ -2399,7 +2398,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5" t="s">
         <v>159</v>
       </c>
@@ -2413,7 +2412,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5" t="s">
         <v>161</v>
       </c>
@@ -2427,7 +2426,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5" t="s">
         <v>163</v>
       </c>
@@ -2441,7 +2440,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>165</v>
       </c>
@@ -2455,7 +2454,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5" t="s">
         <v>167</v>
       </c>
@@ -2469,7 +2468,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>169</v>
       </c>
@@ -2483,7 +2482,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>171</v>
       </c>
@@ -2497,7 +2496,7 @@
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
     </row>
-    <row r="95" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>173</v>
       </c>
@@ -2511,7 +2510,7 @@
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
     </row>
-    <row r="96" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>175</v>
       </c>
@@ -2525,7 +2524,7 @@
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
     </row>
-    <row r="97" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>177</v>
       </c>
@@ -2539,35 +2538,39 @@
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
     </row>
-    <row r="98" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>179</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C98" s="7"/>
+      <c r="C98" s="7">
+        <v>1101110</v>
+      </c>
       <c r="D98" s="7"/>
       <c r="E98" s="7"/>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
     </row>
-    <row r="99" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>181</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C99" s="7"/>
+      <c r="C99" s="7">
+        <v>1101111</v>
+      </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
     </row>
-    <row r="100" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5" t="s">
         <v>183</v>
       </c>
@@ -2581,7 +2584,7 @@
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
     </row>
-    <row r="101" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5" t="s">
         <v>185</v>
       </c>
@@ -2595,7 +2598,7 @@
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
     </row>
-    <row r="102" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5" t="s">
         <v>187</v>
       </c>
@@ -2609,7 +2612,7 @@
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
     </row>
-    <row r="103" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="2" t="s">
         <v>190</v>
@@ -2621,7 +2624,7 @@
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
     </row>
-    <row r="104" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="2" t="s">
         <v>191</v>
@@ -2633,7 +2636,7 @@
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>192</v>
       </c>
@@ -2647,7 +2650,7 @@
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5" t="s">
         <v>194</v>
       </c>
@@ -2661,7 +2664,7 @@
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
     </row>
-    <row r="107" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5" t="s">
         <v>196</v>
       </c>
@@ -2675,7 +2678,7 @@
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
     </row>
-    <row r="108" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>198</v>
       </c>
@@ -2689,7 +2692,7 @@
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5" t="s">
         <v>200</v>
       </c>
@@ -2703,7 +2706,7 @@
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
     </row>
-    <row r="110" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5" t="s">
         <v>202</v>
       </c>
@@ -2717,7 +2720,7 @@
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
     </row>
-    <row r="111" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="2" t="s">
         <v>204</v>
@@ -2729,7 +2732,7 @@
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
     </row>
-    <row r="112" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="2" t="s">
         <v>205</v>
@@ -2741,7 +2744,7 @@
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="2" t="s">
         <v>206</v>
@@ -2753,7 +2756,7 @@
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="2" t="s">
         <v>207</v>
@@ -2765,7 +2768,7 @@
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="2" t="s">
         <v>208</v>
@@ -2777,7 +2780,7 @@
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
     </row>
-    <row r="116" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="2" t="s">
         <v>209</v>
@@ -2789,7 +2792,7 @@
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
     </row>
-    <row r="117" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="2" t="s">
         <v>210</v>
@@ -2801,7 +2804,7 @@
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="2" t="s">
         <v>211</v>
@@ -2813,7 +2816,7 @@
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="2" t="s">
         <v>212</v>
@@ -2825,7 +2828,7 @@
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
     </row>
-    <row r="120" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="2" t="s">
         <v>213</v>
@@ -2837,7 +2840,7 @@
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
     </row>
-    <row r="121" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="2" t="s">
         <v>214</v>
@@ -2849,7 +2852,7 @@
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="2" t="s">
         <v>215</v>
@@ -2861,7 +2864,7 @@
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
     </row>
-    <row r="123" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="2" t="s">
         <v>216</v>
@@ -2873,7 +2876,7 @@
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
     </row>
-    <row r="124" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="2" t="s">
         <v>217</v>
@@ -2885,7 +2888,7 @@
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="2" t="s">
         <v>218</v>
@@ -2897,7 +2900,7 @@
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
     </row>
-    <row r="126" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="2" t="s">
         <v>219</v>
@@ -2909,7 +2912,7 @@
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
     </row>
-    <row r="127" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="2" t="s">
         <v>220</v>
@@ -2921,7 +2924,7 @@
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
     </row>
-    <row r="128" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5" t="s">
         <v>221</v>
       </c>
@@ -2935,7 +2938,7 @@
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
     </row>
-    <row r="129" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="2" t="s">
         <v>223</v>
